--- a/Project (UiPath)/ToborInc-Files/Database.xlsx
+++ b/Project (UiPath)/ToborInc-Files/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA Workspace\SFIA Project 2\Project (UiPath)\ToborInc-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA75BB27-B7BA-4B83-9738-D82CB418442D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C2C90-39BF-41FF-91AE-23BCD5ECBC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10935" yWindow="390" windowWidth="17700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer_Database" sheetId="2" r:id="rId1"/>
@@ -1271,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47725217-C61D-4A6A-B15B-CE010EB9806A}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,6 +2767,21 @@
         <v>44005</v>
       </c>
     </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project (UiPath)/ToborInc-Files/Database.xlsx
+++ b/Project (UiPath)/ToborInc-Files/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA Workspace\SFIA Project 2\Project (UiPath)\ToborInc-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13505B8A-1F41-4D75-881B-57793DCCA6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7690B738-C7A2-4CC1-80EA-C74BD647803D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18705" yWindow="7815" windowWidth="17700" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer_Database" sheetId="2" r:id="rId1"/>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47725217-C61D-4A6A-B15B-CE010EB9806A}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1355,7 @@
         <v>311</v>
       </c>
       <c r="I2" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>311</v>
       </c>
       <c r="I3" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>311</v>
       </c>
       <c r="I4" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>311</v>
       </c>
       <c r="I5" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1471,7 +1471,7 @@
         <v>311</v>
       </c>
       <c r="I6" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>311</v>
       </c>
       <c r="I9" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>312</v>
       </c>
       <c r="I10" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>311</v>
       </c>
       <c r="I11" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>312</v>
       </c>
       <c r="I12" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>312</v>
       </c>
       <c r="I13" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>312</v>
       </c>
       <c r="I14" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>312</v>
       </c>
       <c r="I15" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
         <v>311</v>
       </c>
       <c r="I16" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,7 +1848,7 @@
         <v>312</v>
       </c>
       <c r="I19" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>311</v>
       </c>
       <c r="I25" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>312</v>
       </c>
       <c r="I26" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>312</v>
       </c>
       <c r="I27" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2109,7 +2109,7 @@
         <v>311</v>
       </c>
       <c r="I28" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
         <v>311</v>
       </c>
       <c r="I32" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
         <v>311</v>
       </c>
       <c r="I33" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2283,7 +2283,7 @@
         <v>311</v>
       </c>
       <c r="I34" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
         <v>311</v>
       </c>
       <c r="I37" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>311</v>
       </c>
       <c r="I38" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2457,7 +2457,7 @@
         <v>312</v>
       </c>
       <c r="I40" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2515,7 +2515,7 @@
         <v>311</v>
       </c>
       <c r="I42" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>311</v>
       </c>
       <c r="I43" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>311</v>
       </c>
       <c r="I44" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
         <v>311</v>
       </c>
       <c r="I47" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2689,7 +2689,7 @@
         <v>311</v>
       </c>
       <c r="I48" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2718,7 +2718,7 @@
         <v>312</v>
       </c>
       <c r="I49" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2747,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="I51" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">

--- a/Project (UiPath)/ToborInc-Files/Database.xlsx
+++ b/Project (UiPath)/ToborInc-Files/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA Workspace\SFIA Project 2\Project (UiPath)\ToborInc-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7690B738-C7A2-4CC1-80EA-C74BD647803D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF46500-0A69-4A09-88AC-65AC6620A6B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18705" yWindow="7815" windowWidth="17700" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47725217-C61D-4A6A-B15B-CE010EB9806A}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
